--- a/biology/Botanique/Chèvrefeuille_noir/Chèvrefeuille_noir.xlsx
+++ b/biology/Botanique/Chèvrefeuille_noir/Chèvrefeuille_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_noir</t>
+          <t>Chèvrefeuille_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera nigra
 Le chèvrefeuille noir ou camérisier noir (Lonicera nigra), en anglais Blackberried Honeysuckle, en allemand Schwarze Heckenkirsche, en espagnol Madreselva, en catalan Xuclamel negre, en néerlandais Zwarte Kamperfolie est une liane arbustive de la famille des Caprifoliacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_noir</t>
+          <t>Chèvrefeuille_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lonicera carpatica Kitt.</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_noir</t>
+          <t>Chèvrefeuille_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est un arbrisseau haut de 60 à 150 cm[1].
-Caractéristiques
-Organes reproducteurs
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau haut de 60 à 150 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille_noir</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille_noir</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : mai à juillet
 Inflorescence : cyme multipare
@@ -559,31 +610,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ch%C3%A8vrefeuille_noir</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille_noir</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille_noir</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de la montagne qui pousse entre 600 et 1 800 mètres.
 L'aire de répartition est européenne méridionale.
